--- a/Res/annotated_files/Test4-annotated.xlsx
+++ b/Res/annotated_files/Test4-annotated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Review Categorization" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1116">
   <si>
     <t>Review Id</t>
   </si>
@@ -4938,6 +4938,12 @@
 I can't wait to come back... 
 Great choice for lunch downtown for a very fair price. 
 Unless you are completely starving, share a sandwich!</t>
+  </si>
+  <si>
+    <t>`1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
   </si>
 </sst>
 </file>
@@ -5104,6 +5110,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -5111,9 +5120,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5389,7 +5395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5400,9 +5406,9 @@
   <dimension ref="A1:K552"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:K3"/>
+      <selection pane="bottomLeft" activeCell="F452" sqref="F452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5423,24 +5429,24 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="44.25" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5478,9 +5484,13 @@
       <c r="B3" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5495,6 +5505,9 @@
       <c r="B4" s="8" t="s">
         <v>372</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="165">
       <c r="A5" t="s">
@@ -5503,6 +5516,9 @@
       <c r="B5" s="8" t="s">
         <v>374</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="270">
       <c r="A6" t="s">
@@ -5511,6 +5527,15 @@
       <c r="B6" s="8" t="s">
         <v>376</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="409.5">
       <c r="A7" t="s">
@@ -5519,6 +5544,12 @@
       <c r="B7" s="8" t="s">
         <v>378</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="390">
       <c r="A8" t="s">
@@ -5527,6 +5558,15 @@
       <c r="B8" s="8" t="s">
         <v>380</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="330">
       <c r="A9" t="s">
@@ -5535,6 +5575,12 @@
       <c r="B9" s="8" t="s">
         <v>382</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="150">
       <c r="A10" t="s">
@@ -5543,6 +5589,12 @@
       <c r="B10" s="8" t="s">
         <v>384</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="195">
       <c r="A11" t="s">
@@ -5551,6 +5603,12 @@
       <c r="B11" s="8" t="s">
         <v>386</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="120">
       <c r="A12" t="s">
@@ -5559,6 +5617,9 @@
       <c r="B12" s="8" t="s">
         <v>388</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="409.5">
       <c r="A13" t="s">
@@ -5567,6 +5628,12 @@
       <c r="B13" s="8" t="s">
         <v>390</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" t="s">
@@ -5575,6 +5642,15 @@
       <c r="B14" s="8" t="s">
         <v>392</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="150">
       <c r="A15" t="s">
@@ -5583,6 +5659,15 @@
       <c r="B15" s="8" t="s">
         <v>394</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="409.5">
       <c r="A16" t="s">
@@ -5591,4293 +5676,6795 @@
       <c r="B16" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="255">
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="255">
       <c r="A17" t="s">
         <v>397</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="315">
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="315">
       <c r="A18" t="s">
         <v>399</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="315">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="315">
       <c r="A19" t="s">
         <v>401</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="315">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="315">
       <c r="A20" t="s">
         <v>403</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="105">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="105">
       <c r="A21" t="s">
         <v>405</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="135">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="135">
       <c r="A22" t="s">
         <v>407</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="255">
+      <c r="C22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="255">
       <c r="A23" t="s">
         <v>409</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="225">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="225">
       <c r="A24" t="s">
         <v>411</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="330">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="330">
       <c r="A25" t="s">
         <v>413</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="120">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="120">
       <c r="A26" t="s">
         <v>415</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="409.5">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.5">
       <c r="A27" t="s">
         <v>417</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="195">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="195">
       <c r="A28" t="s">
         <v>419</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="315">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="315">
       <c r="A29" t="s">
         <v>421</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="210">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="210">
       <c r="A30" t="s">
         <v>423</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="195">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="195">
       <c r="A31" t="s">
         <v>425</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="105">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105">
       <c r="A32" t="s">
         <v>427</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="165">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="165">
       <c r="A33" t="s">
         <v>429</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="180">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="180">
       <c r="A34" t="s">
         <v>431</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="180">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="180">
       <c r="A35" t="s">
         <v>433</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="409.5">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.5">
       <c r="A36" t="s">
         <v>435</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="180">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="180">
       <c r="A37" t="s">
         <v>437</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="210">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="210">
       <c r="A38" t="s">
         <v>439</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="150">
+      <c r="C38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="150">
       <c r="A39" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="210">
+      <c r="C39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="210">
       <c r="A40" t="s">
         <v>443</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="225">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="225">
       <c r="A41" t="s">
         <v>445</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="270">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="270">
       <c r="A42" t="s">
         <v>447</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="120">
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="120">
       <c r="A43" t="s">
         <v>449</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="75">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75">
       <c r="A44" t="s">
         <v>451</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="75">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="75">
       <c r="A45" t="s">
         <v>453</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" t="s">
         <v>455</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="180">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="180">
       <c r="A47" t="s">
         <v>457</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="60">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="60">
       <c r="A48" t="s">
         <v>459</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="165">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="165">
       <c r="A49" t="s">
         <v>461</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="120">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="120">
       <c r="A50" t="s">
         <v>463</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="90">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="90">
       <c r="A51" t="s">
         <v>465</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="105">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="105">
       <c r="A52" t="s">
         <v>467</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="165">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="165">
       <c r="A53" t="s">
         <v>469</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="270">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="270">
       <c r="A54" t="s">
         <v>471</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="330">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="330">
       <c r="A55" t="s">
         <v>473</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="105">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="105">
       <c r="A56" t="s">
         <v>475</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="60">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="60">
       <c r="A57" t="s">
         <v>477</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="60">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="60">
       <c r="A58" t="s">
         <v>479</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="285">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="285">
       <c r="A59" t="s">
         <v>481</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="315">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="315">
       <c r="A60" t="s">
         <v>483</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="120">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="120">
       <c r="A61" t="s">
         <v>485</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="255">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="255">
       <c r="A62" t="s">
         <v>487</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="75">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="75">
       <c r="A63" t="s">
         <v>489</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="225">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="225">
       <c r="A64" t="s">
         <v>491</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="90">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="90">
       <c r="A65" t="s">
         <v>493</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="75">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="75">
       <c r="A66" t="s">
         <v>495</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="360">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="360">
       <c r="A67" t="s">
         <v>497</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="255">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="255">
       <c r="A68" t="s">
         <v>499</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="270">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="270">
       <c r="A69" t="s">
         <v>501</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="120">
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="120">
       <c r="A70" t="s">
         <v>503</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="90">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="90">
       <c r="A71" t="s">
         <v>505</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="105">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="105">
       <c r="A72" t="s">
         <v>507</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="330">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="330">
       <c r="A73" t="s">
         <v>509</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="300">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="300">
       <c r="A74" t="s">
         <v>511</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="375">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="375">
       <c r="A75" t="s">
         <v>513</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="150">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="150">
       <c r="A76" t="s">
         <v>515</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="45">
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="45">
       <c r="A77" t="s">
         <v>517</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="315">
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="315">
       <c r="A78" t="s">
         <v>519</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="300">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="300">
       <c r="A79" t="s">
         <v>521</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="150">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="150">
       <c r="A80" t="s">
         <v>523</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="105">
+      <c r="C80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="105">
       <c r="A81" t="s">
         <v>525</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="210">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="210">
       <c r="A82" t="s">
         <v>527</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="180">
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="180">
       <c r="A83" t="e">
         <v>#NAME?</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="255">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="255">
       <c r="A84" t="s">
         <v>530</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="120">
+      <c r="C84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="120">
       <c r="A85" t="s">
         <v>532</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="75">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="75">
       <c r="A86" t="s">
         <v>534</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="225">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="225">
       <c r="A87" t="s">
         <v>536</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="409.5">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="409.5">
       <c r="A88" t="s">
         <v>538</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="345">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="345">
       <c r="A89" t="s">
         <v>540</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="315">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="315">
       <c r="A90" t="s">
         <v>542</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>544</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="300">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="300">
       <c r="A92" t="s">
         <v>546</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="135">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="135">
       <c r="A93" t="s">
         <v>548</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="75">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="75">
       <c r="A94" t="s">
         <v>550</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="120">
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="120">
       <c r="A95" t="s">
         <v>552</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="75">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="75">
       <c r="A96" t="s">
         <v>554</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="150">
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="150">
       <c r="A97" t="s">
         <v>556</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="285">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="285">
       <c r="A98" t="s">
         <v>558</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="45">
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="45">
       <c r="A99" t="s">
         <v>560</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="150">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="150">
       <c r="A100" t="s">
         <v>562</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="409.5">
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="409.5">
       <c r="A101" t="s">
         <v>564</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="120">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="120">
       <c r="A102" t="s">
         <v>566</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="165">
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="165">
       <c r="A103" t="s">
         <v>568</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="60">
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="60">
       <c r="A104" t="s">
         <v>570</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="75">
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="75">
       <c r="A105" t="s">
         <v>572</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="150">
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="150">
       <c r="A106" t="s">
         <v>574</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="75">
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="75">
       <c r="A107" t="s">
         <v>576</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="120">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="120">
       <c r="A108" t="s">
         <v>578</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="225">
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="225">
       <c r="A109" t="s">
         <v>580</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="150">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="150">
       <c r="A110" t="s">
         <v>582</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="105">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="105">
       <c r="A111" t="s">
         <v>584</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="315">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="315">
       <c r="A112" t="s">
         <v>586</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="255">
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="255">
       <c r="A113" t="s">
         <v>588</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="345">
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="345">
       <c r="A114" t="s">
         <v>590</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="180">
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="180">
       <c r="A115" t="s">
         <v>592</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="360">
+      <c r="C115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="360">
       <c r="A116" t="s">
         <v>594</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="135">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="135">
       <c r="A117" t="s">
         <v>596</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="315">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="315">
       <c r="A118" t="s">
         <v>598</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="255">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="255">
       <c r="A119" t="s">
         <v>600</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="90">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="90">
       <c r="A120" t="s">
         <v>602</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="315">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="315">
       <c r="A121" t="s">
         <v>604</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="165">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="165">
       <c r="A122" t="s">
         <v>606</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="210">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="210">
       <c r="A123" t="s">
         <v>608</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="210">
+      <c r="F123">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="210">
       <c r="A124" t="s">
         <v>610</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="315">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="315">
       <c r="A125" t="s">
         <v>612</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="60">
+      <c r="C125">
+        <v>-1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="60">
       <c r="A126" t="s">
         <v>614</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="300">
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="300">
       <c r="A127" t="s">
         <v>616</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="75">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="75">
       <c r="A128" t="s">
         <v>618</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="300">
+      <c r="C128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="300">
       <c r="A129" t="s">
         <v>620</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="165">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="165">
       <c r="A130" t="s">
         <v>622</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="60">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="60">
       <c r="A131" t="s">
         <v>624</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="360">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="360">
       <c r="A132" t="s">
         <v>626</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="315">
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="315">
       <c r="A133" t="s">
         <v>628</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="225">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="225">
       <c r="A134" t="s">
         <v>630</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="105">
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="105">
       <c r="A135" t="s">
         <v>632</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="165">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="165">
       <c r="A136" t="s">
         <v>634</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="165">
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="165">
       <c r="A137" t="s">
         <v>636</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="240">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="240">
       <c r="A138" t="s">
         <v>638</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="165">
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="165">
       <c r="A139" t="s">
         <v>640</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="285">
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="285">
       <c r="A140" t="s">
         <v>642</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="180">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="180">
       <c r="A141" t="s">
         <v>644</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="255">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>-1</v>
+      </c>
+      <c r="J141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="255">
       <c r="A142" t="s">
         <v>646</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="120">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="120">
       <c r="A143" t="s">
         <v>648</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="300">
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="300">
       <c r="A144" t="s">
         <v>650</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="135">
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="135">
       <c r="A145" t="s">
         <v>652</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="165">
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="165">
       <c r="A146" t="s">
         <v>654</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="360">
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="360">
       <c r="A147" t="s">
         <v>656</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="150">
+      <c r="C147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="150">
       <c r="A148" t="s">
         <v>658</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="165">
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="165">
       <c r="A149" t="s">
         <v>660</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="210">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="210">
       <c r="A150" t="e">
         <v>#NAME?</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="409.5">
+      <c r="F150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="409.5">
       <c r="A151" t="s">
         <v>663</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="75">
+      <c r="C151">
+        <v>-2</v>
+      </c>
+      <c r="D151">
+        <v>-1</v>
+      </c>
+      <c r="F151">
+        <v>-1</v>
+      </c>
+      <c r="I151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="75">
       <c r="A152" t="s">
         <v>665</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="225">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="225">
       <c r="A153" t="s">
         <v>667</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="409.5">
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="409.5">
       <c r="A154" t="s">
         <v>669</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="360">
+      <c r="C154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="360">
       <c r="A155" t="s">
         <v>671</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="150">
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="150">
       <c r="A156" t="s">
         <v>673</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="30">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" t="s">
         <v>675</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="150">
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="150">
       <c r="A158" t="s">
         <v>677</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="45">
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="45">
       <c r="A159" t="s">
         <v>679</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>681</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="210">
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="210">
       <c r="A161" t="s">
         <v>683</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="300">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="300">
       <c r="A162" t="s">
         <v>685</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="150">
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="150">
       <c r="A163" t="s">
         <v>687</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="255">
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="255">
       <c r="A164" t="s">
         <v>689</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="45">
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="45">
       <c r="A165" t="s">
         <v>691</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="150">
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="150">
       <c r="A166" t="s">
         <v>693</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="195">
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="195">
       <c r="A167" t="s">
         <v>695</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="225">
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="225">
       <c r="A168" t="s">
         <v>697</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="30">
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30">
       <c r="A169" t="s">
         <v>699</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="225">
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="225">
       <c r="A170" t="s">
         <v>701</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="150">
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="150">
       <c r="A171" t="s">
         <v>703</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="180">
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="180">
       <c r="A172" t="s">
         <v>705</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="180">
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="180">
       <c r="A173" t="s">
         <v>707</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="120">
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="120">
       <c r="A174" t="s">
         <v>709</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="345">
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="345">
       <c r="A175" t="e">
         <v>#NAME?</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="45">
+      <c r="F175">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="45">
       <c r="A176" t="s">
         <v>712</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="285">
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="285">
       <c r="A177" t="s">
         <v>714</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="300">
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="300">
       <c r="A178" t="s">
         <v>716</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="105">
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="105">
       <c r="A179" t="s">
         <v>718</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="60">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="60">
       <c r="A180" t="s">
         <v>720</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="120">
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="120">
       <c r="A181" t="s">
         <v>722</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="135">
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="135">
       <c r="A182" t="s">
         <v>724</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="60">
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="60">
       <c r="A183" t="s">
         <v>726</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="75">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="75">
       <c r="A184" t="s">
         <v>728</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="409.5">
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="409.5">
       <c r="A185" t="s">
         <v>730</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="90">
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="90">
       <c r="A186" t="s">
         <v>732</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="135">
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="135">
       <c r="A187" t="s">
         <v>734</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="180">
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="180">
       <c r="A188" t="s">
         <v>736</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="90">
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="90">
       <c r="A189" t="s">
         <v>738</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="45">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" t="s">
         <v>740</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="255">
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="255">
       <c r="A191" t="s">
         <v>742</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="90">
+      <c r="C191">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="90">
       <c r="A192" t="s">
         <v>744</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="150">
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="150">
       <c r="A193" t="s">
         <v>746</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="75">
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="75">
       <c r="A194" t="s">
         <v>748</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="75">
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="75">
       <c r="A195" t="s">
         <v>750</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="165">
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="165">
       <c r="A196" t="s">
         <v>752</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="60">
+      <c r="C196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="60">
       <c r="A197" t="s">
         <v>754</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="45">
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="45">
       <c r="A198" t="s">
         <v>756</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="285">
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="285">
       <c r="A199" t="s">
         <v>758</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="285">
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="285">
       <c r="A200" t="s">
         <v>760</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="75">
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="75">
       <c r="A201" t="s">
         <v>762</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="90">
+      <c r="C201">
+        <v>-1</v>
+      </c>
+      <c r="E201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="90">
       <c r="A202" t="s">
         <v>764</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="60">
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="60">
       <c r="A203" t="s">
         <v>766</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="375">
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="375">
       <c r="A204" t="s">
         <v>768</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="210">
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="210">
       <c r="A205" t="s">
         <v>770</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="409.5">
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="409.5">
       <c r="A206" t="s">
         <v>772</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="105">
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="105">
       <c r="A207" t="s">
         <v>774</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="240">
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="240">
       <c r="A208" t="s">
         <v>776</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="150">
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="150">
       <c r="A209" t="s">
         <v>778</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="135">
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="135">
       <c r="A210" t="s">
         <v>780</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="150">
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="150">
       <c r="A211" t="s">
         <v>782</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="315">
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="315">
       <c r="A212" t="s">
         <v>784</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="240">
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="240">
       <c r="A213" t="s">
         <v>786</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="135">
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="135">
       <c r="A214" t="s">
         <v>788</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="270">
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="270">
       <c r="A215" t="s">
         <v>790</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="30">
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" t="s">
         <v>792</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="120">
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="120">
       <c r="A217" t="s">
         <v>794</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="165">
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="165">
       <c r="A218" t="s">
         <v>796</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="165">
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="165">
       <c r="A219" t="s">
         <v>798</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="90">
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="90">
       <c r="A220" t="s">
         <v>800</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="90">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="90">
       <c r="A221" t="s">
         <v>802</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="315">
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="315">
       <c r="A222" t="s">
         <v>804</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" ht="180">
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="180">
       <c r="A223" t="s">
         <v>806</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" ht="45">
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="45">
       <c r="A224" t="s">
         <v>808</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="409.5">
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="409.5">
       <c r="A225" t="s">
         <v>810</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="300">
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="300">
       <c r="A226" t="s">
         <v>812</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="195">
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="195">
       <c r="A227" t="s">
         <v>814</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" ht="210">
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="210">
       <c r="A228" t="s">
         <v>816</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" ht="210">
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="210">
       <c r="A229" t="s">
         <v>818</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="105">
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="105">
       <c r="A230" t="s">
         <v>820</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="210">
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="210">
       <c r="A231" t="s">
         <v>822</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" ht="210">
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="210">
       <c r="A232" t="s">
         <v>824</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="330">
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="330">
       <c r="A233" t="s">
         <v>826</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" ht="360">
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="360">
       <c r="A234" t="s">
         <v>828</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="330">
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="330">
       <c r="A235" t="s">
         <v>830</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="270">
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="270">
       <c r="A236" t="s">
         <v>832</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" ht="150">
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="150">
       <c r="A237" t="s">
         <v>834</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="105">
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="105">
       <c r="A238" t="s">
         <v>836</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" ht="225">
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="225">
       <c r="A239" t="s">
         <v>838</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" ht="255">
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="255">
       <c r="A240" t="s">
         <v>840</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" ht="255">
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="255">
       <c r="A241" t="s">
         <v>842</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" ht="300">
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="300">
       <c r="A242" t="s">
         <v>844</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="180">
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="180">
       <c r="A243" t="s">
         <v>846</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="150">
+      <c r="C243">
+        <v>-1</v>
+      </c>
+      <c r="F243">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="150">
       <c r="A244" t="s">
         <v>848</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" ht="165">
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="165">
       <c r="A245" t="s">
         <v>850</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="300">
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="300">
       <c r="A246" t="s">
         <v>852</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" ht="330">
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="330">
       <c r="A247" t="s">
         <v>854</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" ht="330">
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="330">
       <c r="A248" t="s">
         <v>856</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" ht="45">
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="45">
       <c r="A249" t="s">
         <v>858</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" ht="270">
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="270">
       <c r="A250" t="s">
         <v>860</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" ht="150">
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="150">
       <c r="A251" t="s">
         <v>862</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="135">
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="135">
       <c r="A252" t="s">
         <v>864</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" ht="120">
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="120">
       <c r="A253" t="s">
         <v>866</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" ht="75">
+      <c r="I253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="75">
       <c r="A254" t="s">
         <v>868</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" ht="240">
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="240">
       <c r="A255" t="s">
         <v>870</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" ht="150">
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="150">
       <c r="A256" t="s">
         <v>872</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="315">
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="315">
       <c r="A257" t="s">
         <v>874</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" ht="225">
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="225">
       <c r="A258" t="s">
         <v>876</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" ht="135">
+      <c r="C258">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="135">
       <c r="A259" t="s">
         <v>878</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" ht="300">
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="300">
       <c r="A260" t="s">
         <v>880</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" ht="45">
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="45">
       <c r="A261" t="s">
         <v>882</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" ht="45">
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="45">
       <c r="A262" t="s">
         <v>884</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" ht="210">
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="210">
       <c r="A263" t="s">
         <v>886</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" ht="210">
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="210">
       <c r="A264" t="s">
         <v>888</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" ht="150">
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="150">
       <c r="A265" t="s">
         <v>890</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" ht="285">
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="285">
       <c r="A266" t="s">
         <v>892</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" ht="225">
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="225">
       <c r="A267" t="s">
         <v>894</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" ht="375">
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="375">
       <c r="A268" t="s">
         <v>896</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="60">
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="60">
       <c r="A269" t="s">
         <v>898</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" ht="300">
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="300">
       <c r="A270" t="s">
         <v>900</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" ht="135">
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="135">
       <c r="A271" t="s">
         <v>902</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" ht="75">
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="75">
       <c r="A272" t="s">
         <v>904</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" ht="409.5">
+      <c r="C272">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="409.5">
       <c r="A273" t="s">
         <v>906</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" ht="30">
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="30">
       <c r="A274" t="s">
         <v>908</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" ht="315">
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="315">
       <c r="A275" t="s">
         <v>910</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" ht="225">
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="225">
       <c r="A276" t="s">
         <v>912</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" ht="345">
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="345">
       <c r="A277" t="s">
         <v>914</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" ht="315">
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="315">
       <c r="A278" t="s">
         <v>916</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" ht="90">
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="90">
       <c r="A279" t="s">
         <v>918</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" ht="105">
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="105">
       <c r="A280" t="s">
         <v>920</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" ht="240">
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="240">
       <c r="A281" t="s">
         <v>922</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" ht="165">
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="165">
       <c r="A282" t="s">
         <v>924</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" ht="375">
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="375">
       <c r="A283" t="s">
         <v>926</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" ht="165">
+      <c r="C283">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="165">
       <c r="A284" t="s">
         <v>928</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" ht="165">
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="165">
       <c r="A285" t="s">
         <v>930</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" ht="409.5">
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="409.5">
       <c r="A286" t="s">
         <v>932</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>934</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" ht="315">
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="315">
       <c r="A288" t="s">
         <v>936</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" ht="409.5">
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="409.5">
       <c r="A289" t="s">
         <v>938</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" ht="150">
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="150">
       <c r="A290" t="s">
         <v>940</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="300">
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="300">
       <c r="A291" t="s">
         <v>942</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" ht="210">
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="210">
       <c r="A292" t="s">
         <v>944</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" ht="225">
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="225">
       <c r="A293" t="s">
         <v>946</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" ht="345">
+      <c r="C293">
+        <v>-1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="345">
       <c r="A294" t="s">
         <v>948</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="295" spans="1:2">
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
         <v>950</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" ht="409.5">
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="409.5">
       <c r="A296" t="s">
         <v>952</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" ht="30">
+      <c r="C296">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" t="s">
         <v>954</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" ht="255">
+      <c r="E297">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="255">
       <c r="A298" t="s">
         <v>956</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" ht="270">
+      <c r="F298">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="270">
       <c r="A299" t="s">
         <v>958</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" ht="210">
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="210">
       <c r="A300" t="s">
         <v>960</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" ht="135">
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="135">
       <c r="A301" t="s">
         <v>962</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" ht="315">
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="315">
       <c r="A302" t="s">
         <v>964</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" ht="60">
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="60">
       <c r="A303" t="s">
         <v>966</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" ht="240">
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="240">
       <c r="A304" t="s">
         <v>968</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" ht="45">
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="45">
       <c r="A305" t="s">
         <v>970</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" ht="60">
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="60">
       <c r="A306" t="s">
         <v>972</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" ht="75">
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="75">
       <c r="A307" t="s">
         <v>974</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" ht="150">
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="150">
       <c r="A308" t="s">
         <v>976</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" ht="135">
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="135">
       <c r="A309" t="s">
         <v>978</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" ht="285">
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="285">
       <c r="A310" t="s">
         <v>980</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" ht="90">
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="90">
       <c r="A311" t="s">
         <v>982</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" ht="405">
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="405">
       <c r="A312" t="s">
         <v>984</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" ht="75">
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="75">
       <c r="A313" t="s">
         <v>986</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" ht="105">
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="105">
       <c r="A314" t="s">
         <v>988</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" ht="150">
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="150">
       <c r="A315" t="s">
         <v>990</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" ht="409.5">
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="409.5">
       <c r="A316" t="s">
         <v>992</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" ht="75">
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="75">
       <c r="A317" t="s">
         <v>994</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" ht="60">
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="60">
       <c r="A318" t="s">
         <v>996</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" ht="165">
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="165">
       <c r="A319" t="s">
         <v>998</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" ht="165">
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="165">
       <c r="A320" t="s">
         <v>1000</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" ht="300">
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="300">
       <c r="A321" t="s">
         <v>1002</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" ht="285">
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="285">
       <c r="A322" t="s">
         <v>1004</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" ht="75">
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="75">
       <c r="A323" t="s">
         <v>1006</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" ht="409.5">
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="409.5">
       <c r="A324" t="s">
         <v>1008</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" ht="240">
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" ht="240">
       <c r="A325" t="s">
         <v>1010</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" ht="90">
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="90">
       <c r="A326" t="s">
         <v>1012</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" ht="60">
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="60">
       <c r="A327" t="s">
         <v>1014</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" ht="105">
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="105">
       <c r="A328" t="s">
         <v>1016</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" ht="180">
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="180">
       <c r="A329" t="s">
         <v>1018</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" ht="315">
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="315">
       <c r="A330" t="s">
         <v>1020</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" ht="330">
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="330">
       <c r="A331" t="s">
         <v>1022</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" ht="150">
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="150">
       <c r="A332" t="s">
         <v>1024</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" ht="345">
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="345">
       <c r="A333" t="s">
         <v>1026</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" ht="60">
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="60">
       <c r="A334" t="s">
         <v>1028</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" ht="30">
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="30">
       <c r="A335" t="s">
         <v>1030</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" ht="330">
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="330">
       <c r="A336" t="s">
         <v>1032</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" ht="315">
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="I336">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="315">
       <c r="A337" t="s">
         <v>1034</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" ht="345">
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="345">
       <c r="A338" t="s">
         <v>1036</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" ht="60">
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="60">
       <c r="A339" t="s">
         <v>1038</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" ht="105">
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="105">
       <c r="A340" t="s">
         <v>1040</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" ht="330">
+      <c r="C340">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="330">
       <c r="A341" t="s">
         <v>1042</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" ht="285">
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="285">
       <c r="A342" t="s">
         <v>1044</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" ht="180">
+      <c r="C342">
+        <v>-1</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="180">
       <c r="A343" t="s">
         <v>1046</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" ht="240">
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="240">
       <c r="A344" t="s">
         <v>1048</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" ht="120">
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="120">
       <c r="A345" t="s">
         <v>1050</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" ht="255">
+      <c r="C345">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="255">
       <c r="A346" t="s">
         <v>1052</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" ht="30">
+      <c r="C346">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" t="s">
         <v>1054</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" ht="45">
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="45">
       <c r="A348" t="s">
         <v>1056</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" ht="195">
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="195">
       <c r="A349" t="s">
         <v>1058</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" ht="195">
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="195">
       <c r="A350" t="s">
         <v>1060</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" ht="45">
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="45">
       <c r="A351" t="s">
         <v>1062</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" ht="180">
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="180">
       <c r="A352" t="s">
         <v>1064</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" ht="195">
+      <c r="C352">
+        <v>-1</v>
+      </c>
+      <c r="I352">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="195">
       <c r="A353" t="s">
         <v>1066</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" ht="330">
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="330">
       <c r="A354" t="s">
         <v>1068</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" ht="120">
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="120">
       <c r="A355" t="s">
         <v>1070</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" ht="270">
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="270">
       <c r="A356" t="s">
         <v>1072</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" ht="150">
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="150">
       <c r="A357" t="s">
         <v>1074</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" ht="285">
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="285">
       <c r="A358" t="s">
         <v>1076</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" ht="300">
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="300">
       <c r="A359" t="s">
         <v>1078</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" ht="240">
+      <c r="C359">
+        <v>-1</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="240">
       <c r="A360" t="s">
         <v>1080</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" ht="105">
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="105">
       <c r="A361" t="s">
         <v>1082</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" ht="315">
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="315">
       <c r="A362" t="s">
         <v>1084</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" ht="135">
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" ht="135">
       <c r="A363" t="s">
         <v>1086</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" ht="225">
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="225">
       <c r="A364" t="s">
         <v>1088</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" ht="195">
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="195">
       <c r="A365" t="s">
         <v>1090</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" ht="75">
+      <c r="I365">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="75">
       <c r="A366" t="s">
         <v>1092</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" ht="135">
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="135">
       <c r="A367" t="s">
         <v>1094</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" ht="75">
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="75">
       <c r="A368" t="s">
         <v>1096</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" ht="210">
+      <c r="I368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="210">
       <c r="A369" t="s">
         <v>1098</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" ht="300">
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="300">
       <c r="A370" t="s">
         <v>1100</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" ht="315">
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="315">
       <c r="A371" t="s">
         <v>1102</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" ht="45">
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" ht="45">
       <c r="A372" t="s">
         <v>1104</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" ht="240">
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" ht="240">
       <c r="A373" t="s">
         <v>1106</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" ht="180">
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="180">
       <c r="A374" t="s">
         <v>1108</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" ht="255">
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="255">
       <c r="A375" t="s">
         <v>1110</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" ht="270">
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="270">
       <c r="A376" t="s">
         <v>1112</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" ht="270">
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="270">
       <c r="A377" t="s">
         <v>18</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="378" spans="1:2">
+      <c r="C377">
+        <v>-1</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>-1</v>
+      </c>
+      <c r="I377">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
         <v>20</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" ht="135">
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="135">
       <c r="A379" t="s">
         <v>22</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" ht="135">
+      <c r="H379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" ht="135">
       <c r="A380" t="s">
         <v>24</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" ht="165">
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="165">
       <c r="A381" t="s">
         <v>26</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" ht="165">
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="165">
       <c r="A382" t="s">
         <v>28</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" ht="75">
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="75">
       <c r="A383" t="s">
         <v>30</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" ht="150">
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="150">
       <c r="A384" t="s">
         <v>32</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" ht="240">
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" ht="240">
       <c r="A385" t="s">
         <v>34</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" ht="240">
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" ht="240">
       <c r="A386" t="s">
         <v>36</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" ht="120">
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" ht="120">
       <c r="A387" t="s">
         <v>38</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" ht="180">
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" ht="180">
       <c r="A388" t="s">
         <v>40</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" ht="75">
+      <c r="F388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" ht="75">
       <c r="A389" t="s">
         <v>42</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" ht="375">
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="375">
       <c r="A390" t="s">
         <v>44</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" ht="225">
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" ht="225">
       <c r="A391" t="s">
         <v>46</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" ht="75">
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="75">
       <c r="A392" t="s">
         <v>48</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" ht="390">
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="390">
       <c r="A393" t="s">
         <v>50</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" ht="270">
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>-1</v>
+      </c>
+      <c r="J393">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" ht="270">
       <c r="A394" t="s">
         <v>52</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" ht="225">
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" ht="225">
       <c r="A395" t="s">
         <v>54</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" ht="255">
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" ht="255">
       <c r="A396" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" ht="90">
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" ht="90">
       <c r="A397" t="s">
         <v>58</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" ht="150">
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" ht="150">
       <c r="A398" t="s">
         <v>60</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" ht="390">
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" ht="390">
       <c r="A399" t="s">
         <v>62</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" ht="135">
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="F399">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" ht="135">
       <c r="A400" t="s">
         <v>64</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" ht="315">
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" ht="315">
       <c r="A401" t="s">
         <v>66</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" ht="45">
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" ht="45">
       <c r="A402" t="s">
         <v>68</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" ht="45">
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" ht="45">
       <c r="A403" t="s">
         <v>70</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" ht="105">
+      <c r="F403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" ht="105">
       <c r="A404" t="s">
         <v>72</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" ht="210">
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" ht="210">
       <c r="A405" t="s">
         <v>74</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" ht="270">
+      <c r="C405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" ht="270">
       <c r="A406" t="s">
         <v>76</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" ht="90">
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" ht="90">
       <c r="A407" t="s">
         <v>78</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" ht="330">
+      <c r="C407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" ht="330">
       <c r="A408" t="s">
         <v>80</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" ht="300">
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" ht="300">
       <c r="A409" t="s">
         <v>82</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" ht="90">
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="I409">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" ht="90">
       <c r="A410" t="s">
         <v>84</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" ht="195">
+      <c r="I410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" ht="195">
       <c r="A411" t="s">
         <v>86</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" ht="90">
+      <c r="J411">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" ht="90">
       <c r="A412" t="s">
         <v>88</v>
       </c>
       <c r="B412" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" ht="180">
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" ht="180">
       <c r="A413" t="s">
         <v>90</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" ht="60">
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" ht="60">
       <c r="A414" t="s">
         <v>92</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" ht="105">
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" ht="105">
       <c r="A415" t="s">
         <v>94</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" ht="150">
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" ht="150">
       <c r="A416" t="s">
         <v>96</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" ht="105">
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" ht="105">
       <c r="A417" t="s">
         <v>98</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" ht="120">
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" ht="120">
       <c r="A418" t="s">
         <v>100</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="419" spans="1:2">
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
       <c r="A419" t="s">
         <v>102</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" ht="90">
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="90">
       <c r="A420" t="s">
         <v>104</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" ht="330">
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="330">
       <c r="A421" t="s">
         <v>106</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" ht="285">
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="285">
       <c r="A422" t="s">
         <v>108</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" ht="150">
+      <c r="C422">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="150">
       <c r="A423" t="s">
         <v>110</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" ht="315">
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="F423">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" ht="315">
       <c r="A424" t="s">
         <v>112</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" ht="240">
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" ht="240">
       <c r="A425" t="s">
         <v>114</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" ht="90">
+      <c r="C425">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" ht="90">
       <c r="A426" t="s">
         <v>116</v>
       </c>
       <c r="B426" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" ht="180">
+      <c r="C426">
+        <v>-1</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" ht="180">
       <c r="A427" t="s">
         <v>118</v>
       </c>
       <c r="B427" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" ht="225">
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" ht="225">
       <c r="A428" t="s">
         <v>120</v>
       </c>
       <c r="B428" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" ht="390">
+      <c r="C428">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" ht="390">
       <c r="A429" t="s">
         <v>122</v>
       </c>
       <c r="B429" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" ht="375">
+      <c r="C429">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" ht="375">
       <c r="A430" t="s">
         <v>124</v>
       </c>
       <c r="B430" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" ht="180">
+      <c r="F430">
+        <v>-1</v>
+      </c>
+      <c r="I430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="180">
       <c r="A431" t="s">
         <v>126</v>
       </c>
       <c r="B431" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" ht="105">
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="105">
       <c r="A432" t="s">
         <v>128</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" ht="300">
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" ht="300">
       <c r="A433" t="s">
         <v>130</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" ht="210">
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="210">
       <c r="A434" t="s">
         <v>132</v>
       </c>
       <c r="B434" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" ht="409.5">
+      <c r="C434">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" ht="409.5">
       <c r="A435" t="s">
         <v>134</v>
       </c>
       <c r="B435" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" ht="195">
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="195">
       <c r="A436" t="s">
         <v>136</v>
       </c>
       <c r="B436" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" ht="210">
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="210">
       <c r="A437" t="s">
         <v>138</v>
       </c>
       <c r="B437" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" ht="135">
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="135">
       <c r="A438" t="s">
         <v>140</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" ht="255">
+      <c r="F438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" ht="255">
       <c r="A439" t="s">
         <v>142</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" ht="255">
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="255">
       <c r="A440" t="s">
         <v>144</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" ht="135">
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" ht="135">
       <c r="A441" t="s">
         <v>146</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" ht="210">
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="210">
       <c r="A442" t="s">
         <v>148</v>
       </c>
       <c r="B442" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" ht="330">
+      <c r="C442">
+        <v>-1</v>
+      </c>
+      <c r="F442">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="330">
       <c r="A443" t="s">
         <v>150</v>
       </c>
       <c r="B443" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" ht="60">
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" ht="60">
       <c r="A444" t="s">
         <v>152</v>
       </c>
       <c r="B444" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" ht="255">
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" ht="255">
       <c r="A445" t="s">
         <v>154</v>
       </c>
       <c r="B445" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="446" spans="1:2">
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446" t="s">
         <v>156</v>
       </c>
       <c r="B446" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" ht="30">
+      <c r="C446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="30">
       <c r="A447" t="s">
         <v>158</v>
       </c>
       <c r="B447" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" ht="165">
+      <c r="C447">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="165">
       <c r="A448" t="s">
         <v>160</v>
       </c>
       <c r="B448" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" ht="105">
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" ht="105">
       <c r="A449" t="s">
         <v>162</v>
       </c>
       <c r="B449" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" ht="150">
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" ht="150">
       <c r="A450" t="s">
         <v>164</v>
       </c>
       <c r="B450" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" ht="240">
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" ht="240">
       <c r="A451" t="s">
         <v>166</v>
       </c>
       <c r="B451" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" ht="240">
+      <c r="E451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" ht="240">
       <c r="A452" t="s">
         <v>168</v>
       </c>
       <c r="B452" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" ht="409.5">
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" ht="409.5">
       <c r="A453" t="s">
         <v>170</v>
       </c>
       <c r="B453" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" ht="390">
+      <c r="C453">
+        <v>-1</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" ht="390">
       <c r="A454" t="s">
         <v>172</v>
       </c>
       <c r="B454" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" ht="270">
+      <c r="C454">
+        <v>-1</v>
+      </c>
+      <c r="F454">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" ht="270">
       <c r="A455" t="s">
         <v>174</v>
       </c>
       <c r="B455" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="456" spans="1:2">
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10">
       <c r="A456" t="s">
         <v>176</v>
       </c>
       <c r="B456" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" ht="255">
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" ht="255">
       <c r="A457" t="s">
         <v>178</v>
       </c>
       <c r="B457" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" ht="165">
+      <c r="C457">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" ht="165">
       <c r="A458" t="s">
         <v>180</v>
       </c>
       <c r="B458" s="8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" ht="345">
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" ht="345">
       <c r="A459" t="s">
         <v>182</v>
       </c>
       <c r="B459" s="8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" ht="270">
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" ht="270">
       <c r="A460" t="s">
         <v>184</v>
       </c>
       <c r="B460" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" ht="210">
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="F460">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" ht="210">
       <c r="A461" t="s">
         <v>186</v>
       </c>
       <c r="B461" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" ht="75">
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="F461">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" ht="75">
       <c r="A462" t="s">
         <v>188</v>
       </c>
       <c r="B462" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="463" spans="1:2">
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10">
       <c r="A463" t="s">
         <v>190</v>
       </c>
       <c r="B463" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" ht="330">
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" ht="330">
       <c r="A464" t="s">
         <v>192</v>
       </c>
       <c r="B464" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" ht="300">
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="300">
       <c r="A465" t="s">
         <v>194</v>
       </c>
       <c r="B465" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" ht="285">
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="285">
       <c r="A466" t="s">
         <v>196</v>
       </c>
       <c r="B466" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" ht="90">
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="90">
       <c r="A467" t="s">
         <v>198</v>
       </c>
       <c r="B467" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" ht="360">
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="360">
       <c r="A468" t="s">
         <v>200</v>
       </c>
       <c r="B468" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" ht="105">
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="105">
       <c r="A469" t="s">
         <v>202</v>
       </c>
       <c r="B469" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" ht="90">
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="90">
       <c r="A470" t="s">
         <v>204</v>
       </c>
       <c r="B470" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" ht="180">
+      <c r="E470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="180">
       <c r="A471" t="s">
         <v>206</v>
       </c>
       <c r="B471" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" ht="195">
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="195">
       <c r="A472" t="s">
         <v>208</v>
       </c>
       <c r="B472" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" ht="285">
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="285">
       <c r="A473" t="s">
         <v>210</v>
       </c>
       <c r="B473" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" ht="165">
+      <c r="C473">
+        <v>-1</v>
+      </c>
+      <c r="F473">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="165">
       <c r="A474" t="s">
         <v>212</v>
       </c>
       <c r="B474" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" ht="135">
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="135">
       <c r="A475" t="s">
         <v>214</v>
       </c>
       <c r="B475" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" ht="345">
+      <c r="I475">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="345">
       <c r="A476" t="s">
         <v>216</v>
       </c>
       <c r="B476" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" ht="315">
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="315">
       <c r="A477" t="s">
         <v>218</v>
       </c>
       <c r="B477" s="8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" ht="270">
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="I477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="270">
       <c r="A478" t="s">
         <v>220</v>
       </c>
       <c r="B478" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" ht="180">
+      <c r="C478">
+        <v>-1</v>
+      </c>
+      <c r="F478">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="180">
       <c r="A479" t="s">
         <v>222</v>
       </c>
       <c r="B479" s="8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" ht="180">
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="180">
       <c r="A480" t="s">
         <v>224</v>
       </c>
       <c r="B480" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" ht="135">
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" ht="135">
       <c r="A481" t="s">
         <v>226</v>
       </c>
       <c r="B481" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" ht="165">
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="165">
       <c r="A482" t="s">
         <v>228</v>
       </c>
       <c r="B482" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" ht="300">
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="300">
       <c r="A483" t="s">
         <v>230</v>
       </c>
       <c r="B483" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" ht="75">
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="75">
       <c r="A484" t="s">
         <v>232</v>
       </c>
       <c r="B484" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" ht="45">
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="45">
       <c r="A485" t="s">
         <v>234</v>
       </c>
       <c r="B485" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" ht="225">
+      <c r="C485">
+        <v>-1</v>
+      </c>
+      <c r="I485">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="225">
       <c r="A486" t="s">
         <v>236</v>
       </c>
       <c r="B486" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" ht="75">
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>-1</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="75">
       <c r="A487" t="s">
         <v>238</v>
       </c>
       <c r="B487" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" ht="90">
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="90">
       <c r="A488" t="s">
         <v>240</v>
       </c>
       <c r="B488" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" ht="285">
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="285">
       <c r="A489" t="s">
         <v>242</v>
       </c>
       <c r="B489" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" ht="120">
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="F489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="120">
       <c r="A490" t="s">
         <v>244</v>
       </c>
       <c r="B490" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" ht="90">
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="90">
       <c r="A491" t="s">
         <v>246</v>
       </c>
       <c r="B491" s="8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" ht="150">
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="150">
       <c r="A492" t="s">
         <v>248</v>
       </c>
       <c r="B492" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" ht="90">
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="90">
       <c r="A493" t="s">
         <v>250</v>
       </c>
       <c r="B493" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" ht="60">
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="60">
       <c r="A494" t="s">
         <v>252</v>
       </c>
       <c r="B494" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" ht="225">
+      <c r="I494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="225">
       <c r="A495" t="s">
         <v>254</v>
       </c>
       <c r="B495" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" ht="165">
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="165">
       <c r="A496" t="s">
         <v>256</v>
       </c>
       <c r="B496" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" ht="180">
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="180">
       <c r="A497" t="s">
         <v>258</v>
       </c>
       <c r="B497" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" ht="165">
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="165">
       <c r="A498" t="s">
         <v>260</v>
       </c>
       <c r="B498" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" ht="75">
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="75">
       <c r="A499" t="s">
         <v>262</v>
       </c>
       <c r="B499" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" ht="210">
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="210">
       <c r="A500" t="s">
         <v>264</v>
       </c>
       <c r="B500" s="8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" ht="409.5">
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="409.5">
       <c r="A501" t="s">
         <v>266</v>
       </c>
       <c r="B501" s="8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" ht="285">
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="285">
       <c r="A502" t="s">
         <v>268</v>
       </c>
       <c r="B502" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" ht="315">
+      <c r="C502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="315">
       <c r="A503" t="s">
         <v>270</v>
       </c>
       <c r="B503" s="8" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" ht="150">
+      <c r="C503">
+        <v>-1</v>
+      </c>
+      <c r="F503">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="150">
       <c r="A504" t="s">
         <v>272</v>
       </c>
       <c r="B504" s="8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" ht="165">
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" ht="165">
       <c r="A505" t="s">
         <v>274</v>
       </c>
       <c r="B505" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" ht="120">
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" ht="120">
       <c r="A506" t="e">
         <v>#NAME?</v>
       </c>
       <c r="B506" s="8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" ht="75">
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="75">
       <c r="A507" t="s">
         <v>277</v>
       </c>
       <c r="B507" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="508" spans="1:2" ht="300">
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="300">
       <c r="A508" t="s">
         <v>279</v>
       </c>
       <c r="B508" s="8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" ht="120">
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="I508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="120">
       <c r="A509" t="s">
         <v>281</v>
       </c>
       <c r="B509" s="8" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" ht="255">
+      <c r="C509">
+        <v>-1</v>
+      </c>
+      <c r="F509">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="255">
       <c r="A510" t="s">
         <v>283</v>
       </c>
       <c r="B510" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" ht="105">
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="105">
       <c r="A511" t="s">
         <v>285</v>
       </c>
       <c r="B511" s="8" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" ht="30">
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="30">
       <c r="A512" t="s">
         <v>287</v>
       </c>
       <c r="B512" s="8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" ht="90">
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="I512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="90">
       <c r="A513" t="s">
         <v>289</v>
       </c>
       <c r="B513" s="8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" ht="180">
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="180">
       <c r="A514" t="s">
         <v>291</v>
       </c>
       <c r="B514" s="8" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" ht="240">
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="I514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="240">
       <c r="A515" t="s">
         <v>293</v>
       </c>
       <c r="B515" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" ht="165">
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="165">
       <c r="A516" t="s">
         <v>295</v>
       </c>
       <c r="B516" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" ht="409.5">
+      <c r="C516">
+        <v>-1</v>
+      </c>
+      <c r="F516">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="409.5">
       <c r="A517" t="s">
         <v>297</v>
       </c>
       <c r="B517" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="518" spans="1:2" ht="409.5">
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="409.5">
       <c r="A518" t="s">
         <v>299</v>
       </c>
       <c r="B518" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" ht="225">
+      <c r="C518">
+        <v>-1</v>
+      </c>
+      <c r="F518">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="225">
       <c r="A519" t="s">
         <v>301</v>
       </c>
       <c r="B519" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" ht="360">
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="360">
       <c r="A520" t="s">
         <v>303</v>
       </c>
       <c r="B520" s="8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" ht="195">
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="195">
       <c r="A521" t="s">
         <v>305</v>
       </c>
       <c r="B521" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" ht="225">
+      <c r="E521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="225">
       <c r="A522" t="s">
         <v>307</v>
       </c>
       <c r="B522" s="8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" ht="315">
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" ht="315">
       <c r="A523" t="s">
         <v>309</v>
       </c>
       <c r="B523" s="8" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" ht="135">
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="F523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" ht="135">
       <c r="A524" t="s">
         <v>311</v>
       </c>
       <c r="B524" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" ht="180">
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="I524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" ht="180">
       <c r="A525" t="s">
         <v>313</v>
       </c>
       <c r="B525" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" ht="120">
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="I525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" ht="120">
       <c r="A526" t="s">
         <v>315</v>
       </c>
       <c r="B526" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" ht="210">
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="I526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" ht="210">
       <c r="A527" t="s">
         <v>317</v>
       </c>
       <c r="B527" s="8" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" ht="135">
+      <c r="F527">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" ht="135">
       <c r="A528" t="s">
         <v>319</v>
       </c>
       <c r="B528" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" ht="75">
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" ht="75">
       <c r="A529" t="s">
         <v>321</v>
       </c>
       <c r="B529" s="8" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" ht="135">
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="135">
       <c r="A530" t="s">
         <v>323</v>
       </c>
       <c r="B530" s="8" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" ht="375">
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="I530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="375">
       <c r="A531" t="s">
         <v>325</v>
       </c>
       <c r="B531" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" ht="375">
+      <c r="C531">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="375">
       <c r="A532" t="s">
         <v>327</v>
       </c>
       <c r="B532" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" ht="240">
+      <c r="D532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" ht="240">
       <c r="A533" t="s">
         <v>329</v>
       </c>
       <c r="B533" s="8" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" ht="255">
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" ht="255">
       <c r="A534" t="s">
         <v>331</v>
       </c>
       <c r="B534" s="8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" ht="255">
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" ht="255">
       <c r="A535" t="s">
         <v>333</v>
       </c>
       <c r="B535" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" ht="105">
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" ht="105">
       <c r="A536" t="s">
         <v>335</v>
       </c>
       <c r="B536" s="8" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" ht="165">
+      <c r="C536">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="165">
       <c r="A537" t="s">
         <v>337</v>
       </c>
       <c r="B537" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" ht="270">
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" ht="270">
       <c r="A538" t="s">
         <v>339</v>
       </c>
       <c r="B538" s="8" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" ht="150">
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" ht="150">
       <c r="A539" t="s">
         <v>341</v>
       </c>
       <c r="B539" s="8" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" ht="195">
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="F539">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="195">
       <c r="A540" t="s">
         <v>343</v>
       </c>
       <c r="B540" s="8" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="541" spans="1:2" ht="240">
+      <c r="E540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" ht="240">
       <c r="A541" t="s">
         <v>345</v>
       </c>
       <c r="B541" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="542" spans="1:2" ht="75">
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="I541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" ht="75">
       <c r="A542" t="s">
         <v>347</v>
       </c>
       <c r="B542" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" ht="285">
+      <c r="I542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" ht="285">
       <c r="A543" t="s">
         <v>349</v>
       </c>
       <c r="B543" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" ht="30">
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="30">
       <c r="A544" t="s">
         <v>351</v>
       </c>
       <c r="B544" s="8" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" ht="105">
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" ht="105">
       <c r="A545" t="s">
         <v>353</v>
       </c>
       <c r="B545" s="8" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" ht="270">
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" ht="270">
       <c r="A546" t="s">
         <v>355</v>
       </c>
       <c r="B546" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" ht="255">
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="I546">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" ht="255">
       <c r="A547" t="s">
         <v>357</v>
       </c>
       <c r="B547" s="8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" ht="360">
+      <c r="F547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" ht="360">
       <c r="A548" t="s">
         <v>359</v>
       </c>
       <c r="B548" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" ht="195">
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" ht="195">
       <c r="A549" t="s">
         <v>361</v>
       </c>
       <c r="B549" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" ht="225">
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" ht="225">
       <c r="A550" t="s">
         <v>363</v>
       </c>
       <c r="B550" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" ht="30">
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="30">
       <c r="A551" t="s">
         <v>365</v>
       </c>
       <c r="B551" s="8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" ht="120">
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" ht="120">
       <c r="A552" t="s">
         <v>367</v>
       </c>
       <c r="B552" s="8" t="s">
         <v>368</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9904,12 +12491,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="27.75" customHeight="1">
       <c r="A2" s="5" t="s">
